--- a/Test/Lawnmower/T2/Sensors_data_1000030.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000030.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9876159826669166</v>
+        <v>0.951104199931634</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005002500941873492</v>
+        <v>0.001975136818019607</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2951757632572614</v>
+        <v>0.2466062675395381</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9427681320117659</v>
+        <v>0.9832261590579749</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003590181258113718</v>
+        <v>0.001052230715045316</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003767059268444728</v>
+        <v>0.003713175999922436</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9804829925783466</v>
+        <v>0.3169221774689509</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0009889490448725783</v>
+        <v>0.0346123330063525</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3396479877582266</v>
+        <v>0.497985156542172</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -550,18 +550,68 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.06509548303439772</v>
+        <v>0.9948147298455533</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05926735057412058</v>
+        <v>0.000328715091742811</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5495463979082386</v>
+        <v>0.07101491789030379</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9968354091591647</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0001258949220089511</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3333046077245355</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9263296863903574</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.001605253025381021</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.542227500382378</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
